--- a/data/trans_camb/P19C03-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.260670865754269</v>
+        <v>-8.80144748576655</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.40801714803218</v>
+        <v>-13.71537899506388</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.81397496244114</v>
+        <v>-21.53691365774777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.15408662979296</v>
+        <v>-10.30325962369769</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-15.07094039511017</v>
+        <v>-14.49243818024632</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-23.76713888010266</v>
+        <v>-24.31309885127472</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-8.112835409348648</v>
+        <v>-7.778274445612822</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-12.45657734456747</v>
+        <v>-12.0975479101315</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-20.426004913076</v>
+        <v>-20.42056981304628</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.311668150453861</v>
+        <v>4.397345395129901</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.3302041053056382</v>
+        <v>0.003343731191903068</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-3.038909711280507</v>
+        <v>-3.713597807442925</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.095172104478823</v>
+        <v>3.152107665502013</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.837957438537813</v>
+        <v>-1.129546545864125</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-8.904769840855465</v>
+        <v>-9.337343446168074</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.714902203765246</v>
+        <v>1.892792456360377</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.421402446009626</v>
+        <v>-2.331186217291531</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-8.971472218293716</v>
+        <v>-8.675952853827381</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.2194569423990504</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.4303075850049633</v>
+        <v>-0.4303075850049634</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2333726375145057</v>
+        <v>-0.2254965811741942</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3650695578653858</v>
+        <v>-0.3437187698863745</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5702370343004334</v>
+        <v>-0.5681735648986665</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2847187475069295</v>
+        <v>-0.2862047866635817</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4156692927920907</v>
+        <v>-0.4071238581312766</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6708503303672346</v>
+        <v>-0.672234115585898</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2150066592021895</v>
+        <v>-0.2105312297514992</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3418783220681686</v>
+        <v>-0.3324997473215828</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5618803720662027</v>
+        <v>-0.560302891957584</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1320913047969823</v>
+        <v>0.1335253016832841</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.009947966407572994</v>
+        <v>0.01134370822530268</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.09768221606210242</v>
+        <v>-0.1038274489120167</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1036164404158391</v>
+        <v>0.1084563227506816</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.06129950830212521</v>
+        <v>-0.04483328578343003</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2865912428401418</v>
+        <v>-0.2893312289320454</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05341456980287466</v>
+        <v>0.05749008584277694</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.0739500447165858</v>
+        <v>-0.07692964413602923</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.2690346396448217</v>
+        <v>-0.2581772251976484</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.56430273559348</v>
+        <v>-11.12547084156806</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.53674345495749</v>
+        <v>-11.63040946951183</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-24.6863044615139</v>
+        <v>-24.35097736409207</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-11.4212375735951</v>
+        <v>-11.7734000322011</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-14.9839745536622</v>
+        <v>-14.63498557849212</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-24.91893220567681</v>
+        <v>-24.43994544511379</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-9.565044136975091</v>
+        <v>-9.860768892690698</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-11.89165181886867</v>
+        <v>-11.37538575384502</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-22.72214955072493</v>
+        <v>-22.4747235300542</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2051535904288582</v>
+        <v>0.1639249698119151</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.3525728098780155</v>
+        <v>0.8383396624161555</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-11.1147887824815</v>
+        <v>-10.83183714944581</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9691606588062343</v>
+        <v>0.3362427673738532</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.991552579874011</v>
+        <v>-3.210590837543975</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-13.5395139189506</v>
+        <v>-13.71382671832228</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.76019059155095</v>
+        <v>-1.406357241973738</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.558162185782005</v>
+        <v>-3.269801182990628</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-14.10899257143093</v>
+        <v>-14.17200543066673</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.234765378622157</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4906568065809796</v>
+        <v>-0.4906568065809795</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1398713194329061</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2729825842069398</v>
+        <v>-0.2591183145991892</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2701732228463307</v>
+        <v>-0.275921470440316</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5894648005270589</v>
+        <v>-0.5792760896363045</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2686762506069763</v>
+        <v>-0.2796194430608069</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3533110931582295</v>
+        <v>-0.3517346167009605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.587215540487391</v>
+        <v>-0.592847574969712</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.231003085989617</v>
+        <v>-0.2355308514210597</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2809122853213999</v>
+        <v>-0.2760920711819847</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5543921474704884</v>
+        <v>-0.5462420691548292</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.005969943630769818</v>
+        <v>0.004457822080122656</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.01006877755387666</v>
+        <v>0.02321791280998664</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2974816161191821</v>
+        <v>-0.2797770691747411</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.03202491130148046</v>
+        <v>0.009944538262877793</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.08159524088065827</v>
+        <v>-0.08754217097779807</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3604826082999179</v>
+        <v>-0.3681482822366441</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.04360249110861872</v>
+        <v>-0.03608937767369016</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.08997405811100354</v>
+        <v>-0.08589276675450666</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.3753436961056855</v>
+        <v>-0.3720492066810134</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-5.007374350247135</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-17.18427865300851</v>
+        <v>-17.1842786530085</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.471736616049479</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.2652509679311</v>
+        <v>-10.94085054874551</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.28639716926502</v>
+        <v>-11.45120684062674</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-22.87964410022744</v>
+        <v>-22.6240573993321</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.352888790768167</v>
+        <v>-7.500431058166789</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-12.94708647523951</v>
+        <v>-12.83503890326956</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-20.71491607477443</v>
+        <v>-20.60433845829479</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.394872932284004</v>
+        <v>-7.217957948577237</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.997378602123131</v>
+        <v>-10.1676586766836</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-20.08117597885786</v>
+        <v>-19.91696629052277</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8547868577565754</v>
+        <v>0.5891880766264724</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6245455957031182</v>
+        <v>0.6782619032150045</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-11.52385780415159</v>
+        <v>-11.39657261960098</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.727652310981401</v>
+        <v>4.279677815239922</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.921285246625821</v>
+        <v>-1.116039351952848</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-10.88828645769463</v>
+        <v>-10.58597596814966</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6408384924201272</v>
+        <v>1.037965847080877</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-2.07241257985532</v>
+        <v>-1.64148109538414</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-12.64415522184875</v>
+        <v>-12.59688490563642</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1297283535199831</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.4452010215639983</v>
+        <v>-0.4452010215639982</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.03959508961107689</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.265285623310373</v>
+        <v>-0.2601874055638658</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2668395490340898</v>
+        <v>-0.2743281057170698</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5539567428741127</v>
+        <v>-0.5472309773407753</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1861601024206629</v>
+        <v>-0.1874435246047614</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3216153256167594</v>
+        <v>-0.3214179292400387</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5084289906876602</v>
+        <v>-0.5121805614871565</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1850057910910415</v>
+        <v>-0.1812908243351844</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2546889730603215</v>
+        <v>-0.2580045663505577</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5004655170196826</v>
+        <v>-0.4947406413644638</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.02518155986669976</v>
+        <v>0.01797349417830486</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.01865268865196483</v>
+        <v>0.02018311806376876</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.3260914126188261</v>
+        <v>-0.320676313246655</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1083116245551606</v>
+        <v>0.1233658770010339</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.0544831488562275</v>
+        <v>-0.03664443543740214</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3101208759087753</v>
+        <v>-0.3102278390819471</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01797798908284312</v>
+        <v>0.02981432406403692</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.05794078701751002</v>
+        <v>-0.04765814824412917</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3534319903954321</v>
+        <v>-0.3489998603133939</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-6.974662051850483</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-13.75897328224796</v>
+        <v>-13.75897328224795</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.179714721981453</v>
+        <v>-8.142957328159174</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.08108287619954</v>
+        <v>-14.7209504152612</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-19.29610314788688</v>
+        <v>-19.88848749229884</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.93963969054561</v>
+        <v>-10.5728692022272</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-12.31662743981232</v>
+        <v>-12.52082085581966</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-19.62366879084572</v>
+        <v>-19.26903051960483</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-8.142524598558438</v>
+        <v>-8.440303391880247</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-11.23022131602403</v>
+        <v>-11.33481986392592</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-17.73726934953963</v>
+        <v>-17.74665504149104</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.003534892710968</v>
+        <v>4.289090291895612</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.8130769870543628</v>
+        <v>-1.22024788689464</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-7.618346762398197</v>
+        <v>-7.54400422327151</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.08173221310373</v>
+        <v>1.305061439385737</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.067375527223479</v>
+        <v>-0.859457047449448</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-9.02810111218124</v>
+        <v>-9.305615527531309</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9457269235150757</v>
+        <v>0.84703573133639</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.570994651531116</v>
+        <v>-2.604354725128664</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-10.02637486935035</v>
+        <v>-10.13710392349314</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.1979869278116637</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3905704433768647</v>
+        <v>-0.3905704433768646</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2311501685837795</v>
+        <v>-0.2142593208014886</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3570416204050364</v>
+        <v>-0.3752271233888994</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4900260536640033</v>
+        <v>-0.501800121296942</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2844558489738313</v>
+        <v>-0.2817059803445168</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3157670574525464</v>
+        <v>-0.3240525965158247</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4993508781293607</v>
+        <v>-0.4951037631268459</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2149210217569351</v>
+        <v>-0.2179286258528569</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2968495540173317</v>
+        <v>-0.3048112012868334</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.467392811749319</v>
+        <v>-0.4663154528232447</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1296359566212586</v>
+        <v>0.138715062933487</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.02380426261403578</v>
+        <v>-0.04312282194903294</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2347838221818353</v>
+        <v>-0.2341910940296087</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.03357190445578901</v>
+        <v>0.03907673476374726</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.002621825511401277</v>
+        <v>-0.02469509528682678</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2794145688645193</v>
+        <v>-0.2940922974569571</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02864925329467648</v>
+        <v>0.02642196107385976</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.07897698641043324</v>
+        <v>-0.08007586594353266</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3054099504433259</v>
+        <v>-0.3071682463734499</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.1819530591249813</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.004096520362564</v>
+        <v>-2.004096520362566</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.165789720950128</v>
@@ -1511,7 +1511,7 @@
         <v>-5.997576456581488</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-9.635936234493341</v>
+        <v>-9.635936234493347</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>5.240680720906443</v>
@@ -1520,7 +1520,7 @@
         <v>-3.239560716530798</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-6.210987886911687</v>
+        <v>-6.210987886911681</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.024055094231785</v>
+        <v>2.966261800398774</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.371548836899773</v>
+        <v>-6.205302665039515</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.587590319872197</v>
+        <v>-7.868983708526576</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.035660912178599</v>
+        <v>-5.973590243130655</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-12.76119373470229</v>
+        <v>-12.4958509789919</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-15.64418853097918</v>
+        <v>-15.76655506366405</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.07864978752230758</v>
+        <v>0.5616999952586572</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-8.221383341395198</v>
+        <v>-8.242705948591514</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-10.38678059779432</v>
+        <v>-10.56475035900132</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>16.7579132160081</v>
+        <v>16.70874126080238</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.638434966826508</v>
+        <v>6.696879072692184</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.72855102405338</v>
+        <v>3.64412804047562</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.84894855521611</v>
+        <v>8.245099593670915</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.6755397795368148</v>
+        <v>1.071371329212406</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.634193849505036</v>
+        <v>-4.007219145015614</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.18985207811922</v>
+        <v>10.27367101993026</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.530276973693437</v>
+        <v>1.455439198633128</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.3567640361294</v>
+        <v>-2.14228253474072</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.008860680967823987</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.09759473119636496</v>
+        <v>-0.09759473119636509</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.03825287337331923</v>
@@ -1616,7 +1616,7 @@
         <v>-0.1967975258466248</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.3161824486761117</v>
+        <v>-0.3161824486761118</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2023575420094437</v>
@@ -1625,7 +1625,7 @@
         <v>-0.125088624684264</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.2398238528884261</v>
+        <v>-0.2398238528884259</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.08036701410242153</v>
+        <v>0.1242045346235604</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.259017869210598</v>
+        <v>-0.2599710842990154</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3150833582888473</v>
+        <v>-0.3176810590990862</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1761632505452132</v>
+        <v>-0.1813749172554424</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3748044524004391</v>
+        <v>-0.3732578567411751</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4451186300499254</v>
+        <v>-0.4511558357624932</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.0006398277168231771</v>
+        <v>0.0172012623913512</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2856527008977584</v>
+        <v>-0.2829631923180374</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3627754941937029</v>
+        <v>-0.3576930915199871</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9737848754886358</v>
+        <v>0.9952958905728477</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3834842828754988</v>
+        <v>0.3894068385949012</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2391329376918075</v>
+        <v>0.2205660149674755</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3307942472966433</v>
+        <v>0.3048814745778701</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03659986186973893</v>
+        <v>0.03906686129031849</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.172087083071422</v>
+        <v>-0.1538920043863487</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4380290793872841</v>
+        <v>0.4497563476954196</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.06546535648454249</v>
+        <v>0.065527870367588</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1054721453901768</v>
+        <v>-0.09191543523206237</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.647449216208855</v>
+        <v>-3.358528488339845</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.1413660831164513</v>
+        <v>-1.073132615285362</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.764818330910453</v>
+        <v>-5.046956686656923</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.141625631879778</v>
+        <v>-6.923224774529723</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.075825819537875</v>
+        <v>-4.926830715940218</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-10.92121337877308</v>
+        <v>-10.48893417282912</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.773244664359795</v>
+        <v>-3.171546225155152</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.8191830576802502</v>
+        <v>-0.888262970190719</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-6.29871439060928</v>
+        <v>-6.036307545425162</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>9.453178936365662</v>
+        <v>10.0475884855749</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>13.33393545858188</v>
+        <v>13.30773759632727</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.918687754066865</v>
+        <v>5.331662484594291</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.221347132937771</v>
+        <v>6.01744059512954</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>9.422522815089469</v>
+        <v>7.820411391608693</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.2289139594487984</v>
+        <v>0.2787284750955782</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.792630594671115</v>
+        <v>6.217238073063546</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.699464683666617</v>
+        <v>9.187319352488405</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.548173746179303</v>
+        <v>1.630298340601225</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.232952854590404</v>
+        <v>-0.2269312300636893</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.03917873871077011</v>
+        <v>-0.08319964833136557</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3013378914453148</v>
+        <v>-0.314253114319215</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3061827094505456</v>
+        <v>-0.2859309362882355</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2089198855030643</v>
+        <v>-0.2043929399753052</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4283437222123616</v>
+        <v>-0.4154903633505107</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1916523481132071</v>
+        <v>-0.1734741922160885</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.04353819001455569</v>
+        <v>-0.04886919289077603</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3224308988245463</v>
+        <v>-0.3177214583173822</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.07774344709179</v>
+        <v>1.084235592236893</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.505054246454534</v>
+        <v>1.458566792180892</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.7060832989831783</v>
+        <v>0.6174632082549176</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3645723702370489</v>
+        <v>0.363971253589397</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5834535248774447</v>
+        <v>0.431672389699519</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02359436740963373</v>
+        <v>0.02718477504471389</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4141696225940023</v>
+        <v>0.4266154633796127</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6016997751158694</v>
+        <v>0.6337111185670208</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1068275864920976</v>
+        <v>0.1173117021547995</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.797105790818669</v>
+        <v>-3.769928119968433</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.657659575636393</v>
+        <v>-0.9889257548244853</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.335983005473932</v>
+        <v>-3.161529945983197</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.948431595907975</v>
+        <v>-2.985533769722812</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.6708487836326099</v>
+        <v>0.7742260698228668</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.668795210887216</v>
+        <v>-2.264021588688611</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.072397430642506</v>
+        <v>-2.041632078747376</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.078776019034633</v>
+        <v>1.81201808129123</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.6788579706359898</v>
+        <v>-1.073874294269157</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>8.492408002037385</v>
+        <v>8.267137791234532</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>10.71033509453977</v>
+        <v>10.17124590665615</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.314020905167476</v>
+        <v>6.843470419886787</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.090088347459875</v>
+        <v>5.5423415834635</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>13.50365178166769</v>
+        <v>12.53224506343493</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.928659923549891</v>
+        <v>5.759058539758022</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.232696278966851</v>
+        <v>4.996778901837983</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>10.51218366046304</v>
+        <v>10.58170341236407</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.464870390906684</v>
+        <v>5.553788660627463</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4769113242049222</v>
+        <v>-0.5011091381450277</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2509786917460513</v>
+        <v>-0.2195120120677556</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2990456655498802</v>
+        <v>-0.3371184440876416</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4030446312078059</v>
+        <v>-0.404923907256907</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.02827965296451317</v>
+        <v>0.07787400523865884</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2047208343333925</v>
+        <v>-0.2509238161120164</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.27844595008816</v>
+        <v>-0.2697857873467303</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2128731213260291</v>
+        <v>0.1936050182465016</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.08926344123802567</v>
+        <v>-0.1289676180481313</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>3.240387461417575</v>
+        <v>2.743700932240717</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>4.518922585147592</v>
+        <v>3.492507257922834</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.925141827843284</v>
+        <v>2.833860873910385</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.128155748572977</v>
+        <v>1.896994207175327</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>4.027454557428631</v>
+        <v>4.043756820319506</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.077446538397138</v>
+        <v>1.797602722060486</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.492975503913377</v>
+        <v>1.435869549626559</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>2.913222198315351</v>
+        <v>2.800532347715354</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.662751681828162</v>
+        <v>1.667549193082264</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.431451446416103</v>
+        <v>-4.531050066121172</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.884358817278627</v>
+        <v>-7.143879530467859</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-15.14520623956049</v>
+        <v>-15.55121199031944</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-5.570885295087091</v>
+        <v>-5.419934301786173</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-8.337218766390016</v>
+        <v>-8.284793588878841</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-16.03940418171156</v>
+        <v>-15.809237566063</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.396070481017814</v>
+        <v>-4.457458067038879</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-6.884174492790805</v>
+        <v>-7.097916987874162</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-14.87264625708271</v>
+        <v>-14.95466207332029</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.6532208921803567</v>
+        <v>0.6490644792560258</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.803086545952221</v>
+        <v>-1.885000746954974</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-10.57105947534602</v>
+        <v>-10.56367443759965</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.6782223916812284</v>
+        <v>-0.7699916771361813</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-3.261033003698833</v>
+        <v>-3.339857623187615</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-11.64745283694483</v>
+        <v>-11.76281988121793</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.8348654801107876</v>
+        <v>-0.8297859127447724</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-3.319033760082072</v>
+        <v>-3.417472048050871</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-11.65477535053236</v>
+        <v>-11.69337366496028</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>-0.1598316115807006</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.4159531558961403</v>
+        <v>-0.4159531558961404</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1323514682837519</v>
+        <v>-0.1368516135918759</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2090655836877843</v>
+        <v>-0.2162627120933878</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4539994970476093</v>
+        <v>-0.462545440489567</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1678656987850559</v>
+        <v>-0.1648117602313452</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.247320616490924</v>
+        <v>-0.2495670769345713</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.4747241512812932</v>
+        <v>-0.4737464253781603</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.132706369114582</v>
+        <v>-0.133745954253982</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2085361489047612</v>
+        <v>-0.2130528404974925</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.451151344229806</v>
+        <v>-0.4536850077575258</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.02120507451889574</v>
+        <v>0.02167402135809042</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.06125592089980567</v>
+        <v>-0.06163309620806892</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.3382795009391822</v>
+        <v>-0.3423307704972495</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.02323923760511419</v>
+        <v>-0.0273170683200047</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.1039177327365594</v>
+        <v>-0.1090918992318761</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.3774862900978021</v>
+        <v>-0.3817588881797879</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.02695796223883939</v>
+        <v>-0.02667616597600722</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1067899962718363</v>
+        <v>-0.1095009070259526</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.3733014111305347</v>
+        <v>-0.3754570271018874</v>
       </c>
     </row>
     <row r="52">
